--- a/ReactAssignment.xlsx
+++ b/ReactAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4973BF6C-4CE7-495B-8E62-0E7960DD6CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07A07A-88CA-46E9-9A99-0CC3D2EEB2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Employee Master</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>&lt;text&gt;</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>&lt;Update&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Update Employee&gt;</t>
   </si>
 </sst>
 </file>
@@ -391,25 +400,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:H11"/>
+  <dimension ref="C1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -417,7 +427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -425,7 +435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -433,7 +443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -441,7 +451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -449,17 +459,20 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -478,8 +491,11 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>1</v>
       </c>
@@ -497,6 +513,9 @@
       </c>
       <c r="H11" t="s">
         <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ReactAssignment.xlsx
+++ b/ReactAssignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\inube\2023\apr2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07A07A-88CA-46E9-9A99-0CC3D2EEB2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE583500-C642-4498-9B81-89E04FD8ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Employee Master</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>&lt;Update Employee&gt;</t>
+  </si>
+  <si>
+    <t>Search By Name</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>Key Press</t>
+  </si>
+  <si>
+    <t>&lt;Reset&gt;</t>
   </si>
 </sst>
 </file>
@@ -400,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I11"/>
+  <dimension ref="C1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -474,47 +486,64 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G12" t="s">
         <v>5</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>93939</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I13" t="s">
         <v>15</v>
       </c>
     </row>
